--- a/Projeto Final/calculo de altura e azimute.xlsx
+++ b/Projeto Final/calculo de altura e azimute.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="SunPathDaily_-15.9896417_-48.04" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="110">
   <si>
     <t>Data:</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>Reta: Y = -2.53x + 117</t>
+  </si>
+  <si>
+    <t>tempo</t>
   </si>
 </sst>
 </file>
@@ -857,16 +860,7 @@
     <xf numFmtId="21" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -881,6 +875,15 @@
     </xf>
     <xf numFmtId="2" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -3654,8 +3657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3669,28 +3672,28 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="9">
         <v>42894</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -4224,67 +4227,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="5"/>
+    <col min="2" max="2" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+      <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="7"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="5">
         <f>2.41*A2+2.61</f>
         <v>2.61</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="5">
         <f>A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="6">
         <v>1.3</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="5">
         <f t="shared" ref="C3:C25" si="0">2.41*A3+2.61</f>
         <v>5.0199999999999996</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="4"/>
       <c r="G3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="5">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="6">
         <v>4.57</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <f t="shared" si="0"/>
         <v>7.43</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="4"/>
       <c r="G4" t="s">
         <v>99</v>
       </c>
@@ -4294,18 +4300,18 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="5">
         <f t="shared" ref="A5:A47" si="1">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="6">
         <v>7.81</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <f t="shared" si="0"/>
         <v>9.84</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="4"/>
       <c r="G5" t="s">
         <v>100</v>
       </c>
@@ -4315,18 +4321,18 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="6">
         <v>11.02</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="5">
         <f t="shared" si="0"/>
         <v>12.25</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="4"/>
       <c r="G6" t="s">
         <v>101</v>
       </c>
@@ -4336,68 +4342,68 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="6">
         <v>14.18</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <f t="shared" si="0"/>
         <v>14.66</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="G7" s="7" t="s">
+      <c r="D7" s="4"/>
+      <c r="G7" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="5">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="6">
         <v>17.3</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="5">
         <f t="shared" si="0"/>
         <v>17.07</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="5">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="6">
         <v>20.37</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="5">
         <f t="shared" si="0"/>
         <v>19.48</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="4"/>
       <c r="G9" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="5">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="6">
         <v>23.37</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="5">
         <f t="shared" si="0"/>
         <v>21.89</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="4"/>
       <c r="G10" t="s">
         <v>107</v>
       </c>
@@ -4407,18 +4413,18 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="6">
         <v>26.31</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="5">
         <f t="shared" si="0"/>
         <v>24.3</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="4"/>
       <c r="G11" t="s">
         <v>100</v>
       </c>
@@ -4428,18 +4434,18 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="5">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="6">
         <v>29.17</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="5">
         <f t="shared" si="0"/>
         <v>26.71</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="4"/>
       <c r="G12" t="s">
         <v>101</v>
       </c>
@@ -4449,499 +4455,499 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="5">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="6">
         <v>31.95</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="5">
         <f t="shared" si="0"/>
         <v>29.12</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="G13" s="7" t="s">
+      <c r="D13" s="4"/>
+      <c r="G13" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="5">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="6">
         <v>34.61</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="5">
         <f t="shared" si="0"/>
         <v>31.53</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="5">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="6">
         <v>37.159999999999997</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="5">
         <f t="shared" si="0"/>
         <v>33.940000000000005</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="5">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="6">
         <v>39.57</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="5">
         <f t="shared" si="0"/>
         <v>36.35</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="5">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="6">
         <v>41.82</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="5">
         <f t="shared" si="0"/>
         <v>38.760000000000005</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="5">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="6">
         <v>43.89</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="5">
         <f t="shared" si="0"/>
         <v>41.17</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="5">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="6">
         <v>45.75</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="5">
         <f t="shared" si="0"/>
         <v>43.58</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="5">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="6">
         <v>47.38</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="5">
         <f t="shared" si="0"/>
         <v>45.99</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="5">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="6">
         <v>48.75</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="5">
         <f t="shared" si="0"/>
         <v>48.400000000000006</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="6">
         <v>49.82</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="5">
         <f t="shared" si="0"/>
         <v>50.81</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="5">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="6">
         <v>50.58</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="5">
         <f t="shared" si="0"/>
         <v>53.22</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="5">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="6">
         <v>51.01</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="5">
         <f t="shared" si="0"/>
         <v>55.63</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="A25" s="5">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="6">
         <v>51.1</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="5">
         <f t="shared" si="0"/>
         <v>58.040000000000006</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
+      <c r="A26" s="7">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="8">
         <v>50.84</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="7">
         <f>-2.53*A26+117</f>
         <v>56.28</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
+      <c r="A27" s="7">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="8">
         <v>50.25</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="7">
         <f t="shared" ref="C27:C47" si="2">-2.53*A27+117</f>
         <v>53.750000000000007</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+      <c r="A28" s="7">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="8">
         <v>49.33</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="7">
         <f t="shared" si="2"/>
         <v>51.22</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+      <c r="A29" s="7">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="8">
         <v>48.11</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="7">
         <f t="shared" si="2"/>
         <v>48.690000000000012</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
+      <c r="A30" s="7">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="8">
         <v>46.61</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="7">
         <f t="shared" si="2"/>
         <v>46.160000000000011</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+      <c r="A31" s="7">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="8">
         <v>44.86</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="7">
         <f t="shared" si="2"/>
         <v>43.63000000000001</v>
       </c>
-      <c r="D31" s="6"/>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+      <c r="A32" s="7">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="8">
         <v>42.89</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="7">
         <f t="shared" si="2"/>
         <v>41.100000000000009</v>
       </c>
-      <c r="D32" s="6"/>
+      <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
+      <c r="A33" s="7">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="8">
         <v>40.729999999999997</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="7">
         <f t="shared" si="2"/>
         <v>38.570000000000007</v>
       </c>
-      <c r="D33" s="6"/>
+      <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
+      <c r="A34" s="7">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="8">
         <v>38.4</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="7">
         <f t="shared" si="2"/>
         <v>36.040000000000006</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
+      <c r="A35" s="7">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="8">
         <v>35.92</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="7">
         <f t="shared" si="2"/>
         <v>33.510000000000005</v>
       </c>
-      <c r="D35" s="6"/>
+      <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
+      <c r="A36" s="7">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="8">
         <v>33.31</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="7">
         <f t="shared" si="2"/>
         <v>30.980000000000004</v>
       </c>
-      <c r="D36" s="6"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
+      <c r="A37" s="7">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="8">
         <v>30.59</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="7">
         <f t="shared" si="2"/>
         <v>28.450000000000003</v>
       </c>
-      <c r="D37" s="6"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
+      <c r="A38" s="7">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="8">
         <v>27.77</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="7">
         <f t="shared" si="2"/>
         <v>25.92</v>
       </c>
-      <c r="D38" s="6"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
+      <c r="A39" s="7">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="8">
         <v>24.87</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="7">
         <f t="shared" si="2"/>
         <v>23.39</v>
       </c>
-      <c r="D39" s="6"/>
+      <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
+      <c r="A40" s="7">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="8">
         <v>21.9</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="7">
         <f t="shared" si="2"/>
         <v>20.860000000000014</v>
       </c>
-      <c r="D40" s="6"/>
+      <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
+      <c r="A41" s="7">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="8">
         <v>18.86</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="7">
         <f t="shared" si="2"/>
         <v>18.330000000000013</v>
       </c>
-      <c r="D41" s="6"/>
+      <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
+      <c r="A42" s="7">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="8">
         <v>15.77</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="7">
         <f t="shared" si="2"/>
         <v>15.800000000000011</v>
       </c>
-      <c r="D42" s="6"/>
+      <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
+      <c r="A43" s="7">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="8">
         <v>12.63</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="7">
         <f t="shared" si="2"/>
         <v>13.27000000000001</v>
       </c>
-      <c r="D43" s="6"/>
+      <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
+      <c r="A44" s="7">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="8">
         <v>9.44</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="7">
         <f t="shared" si="2"/>
         <v>10.740000000000009</v>
       </c>
-      <c r="D44" s="6"/>
+      <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
+      <c r="A45" s="7">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="8">
         <v>6.22</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="7">
         <f t="shared" si="2"/>
         <v>8.210000000000008</v>
       </c>
-      <c r="D45" s="6"/>
+      <c r="D45" s="4"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="10">
+      <c r="A46" s="7">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="8">
         <v>2.96</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="7">
         <f t="shared" si="2"/>
         <v>5.6800000000000068</v>
       </c>
-      <c r="D46" s="6"/>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
+      <c r="A47" s="7">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="8">
         <v>0</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="7">
         <f t="shared" si="2"/>
         <v>3.1500000000000057</v>
       </c>
-      <c r="D47" s="6"/>
+      <c r="D47" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
